--- a/data/trans_orig/P24C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>162432</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>144176</v>
+        <v>143289</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180342</v>
+        <v>179813</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5087427890503342</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4515639490734241</v>
+        <v>0.4487855173338046</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5648365864490099</v>
+        <v>0.5631814787785452</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -764,19 +764,19 @@
         <v>94151</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>82654</v>
+        <v>81387</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106010</v>
+        <v>105051</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5818990089054671</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5108462615127821</v>
+        <v>0.503015570927562</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6551955622730262</v>
+        <v>0.6492701908257189</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>256</v>
@@ -785,19 +785,19 @@
         <v>256583</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>234337</v>
+        <v>235772</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>277373</v>
+        <v>281327</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5333470356346955</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.48710679101092</v>
+        <v>0.4900892310621408</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5765629178237247</v>
+        <v>0.5847813265633219</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>105186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88149</v>
+        <v>88139</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124607</v>
+        <v>122370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3294451226697556</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2760865623226336</v>
+        <v>0.2760558821905694</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3902740362780826</v>
+        <v>0.3832662068748638</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -835,19 +835,19 @@
         <v>53338</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42421</v>
+        <v>42635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64966</v>
+        <v>65735</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3296576120529069</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2621817141969405</v>
+        <v>0.2635062797212193</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4015210935624924</v>
+        <v>0.406275177620048</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>152</v>
@@ -856,19 +856,19 @@
         <v>158524</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>138875</v>
+        <v>137691</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>179223</v>
+        <v>178519</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3295165881061869</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2886732970499226</v>
+        <v>0.2862117770923538</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3725426719353782</v>
+        <v>0.3710794722701207</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>51664</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40184</v>
+        <v>39852</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>65737</v>
+        <v>66534</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1618120882799101</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1258580611049902</v>
+        <v>0.1248191954902258</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.205889862510323</v>
+        <v>0.2083877448012721</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -906,19 +906,19 @@
         <v>14310</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8171</v>
+        <v>8352</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22768</v>
+        <v>23321</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08844337904162598</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05050360450749394</v>
+        <v>0.05162119839986747</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1407201153971042</v>
+        <v>0.1441362882605687</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>64</v>
@@ -927,19 +927,19 @@
         <v>65974</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52079</v>
+        <v>51461</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>82881</v>
+        <v>81952</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1371363762591175</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1082536044225373</v>
+        <v>0.1069696854791103</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.172281621979025</v>
+        <v>0.1703505803593597</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>173949</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>154119</v>
+        <v>155811</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>196385</v>
+        <v>197054</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4293285914325307</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.380385285840998</v>
+        <v>0.3845611957223639</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4847026280576975</v>
+        <v>0.4863542477511263</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>85</v>
@@ -1052,19 +1052,19 @@
         <v>87702</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73084</v>
+        <v>72394</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>103693</v>
+        <v>101370</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3861231043147234</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3217632773380632</v>
+        <v>0.3187231614434743</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.456523550977998</v>
+        <v>0.4462950455739124</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>252</v>
@@ -1073,19 +1073,19 @@
         <v>261652</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>238963</v>
+        <v>237590</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>287659</v>
+        <v>289281</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4138082998586748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3779252063725917</v>
+        <v>0.37575327057307</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4549396776193659</v>
+        <v>0.4575048162042222</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>160979</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>142057</v>
+        <v>140373</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>182985</v>
+        <v>181782</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3973167966610979</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3506155072354467</v>
+        <v>0.3464569912942923</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4516287161816715</v>
+        <v>0.4486599591261126</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>88</v>
@@ -1123,19 +1123,19 @@
         <v>94291</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>80298</v>
+        <v>78611</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>110032</v>
+        <v>109097</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4151316451377641</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3535255019096214</v>
+        <v>0.3460965752817317</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.484432485423928</v>
+        <v>0.4803141369868981</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>234</v>
@@ -1144,19 +1144,19 @@
         <v>255271</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>228382</v>
+        <v>229079</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>277658</v>
+        <v>279705</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.403716253330757</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3611908955151452</v>
+        <v>0.3622941746563301</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4391224946681045</v>
+        <v>0.4423590751204104</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>70237</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55347</v>
+        <v>54678</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87655</v>
+        <v>86798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1733546119063714</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1366030032550373</v>
+        <v>0.1349530689457894</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.216343857531733</v>
+        <v>0.2142279012982863</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -1194,19 +1194,19 @@
         <v>45142</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33650</v>
+        <v>35430</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57867</v>
+        <v>60142</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1987452505475125</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1481497115052272</v>
+        <v>0.1559849331472649</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2547699093141964</v>
+        <v>0.2647850161673863</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>106</v>
@@ -1215,19 +1215,19 @@
         <v>115380</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>95847</v>
+        <v>96514</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136452</v>
+        <v>136383</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1824754468105682</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1515849838026171</v>
+        <v>0.1526385654305114</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.215801721533039</v>
+        <v>0.2156934819304055</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>93114</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>78082</v>
+        <v>76733</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108375</v>
+        <v>108459</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.36775159488216</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3083812658989754</v>
+        <v>0.3030539273409952</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4280235792076026</v>
+        <v>0.4283546090040269</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -1340,19 +1340,19 @@
         <v>60844</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48557</v>
+        <v>49144</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>71798</v>
+        <v>73362</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3579012529295356</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2856299686047983</v>
+        <v>0.2890834552422649</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4223384619290211</v>
+        <v>0.4315393020411135</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>150</v>
@@ -1361,19 +1361,19 @@
         <v>153958</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>135786</v>
+        <v>135126</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>174705</v>
+        <v>173207</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3637946653964723</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3208552609740447</v>
+        <v>0.3192972232540416</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4128209123707302</v>
+        <v>0.4092802453348444</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>86145</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71206</v>
+        <v>71083</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101877</v>
+        <v>100780</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3402287119933632</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2812253146746659</v>
+        <v>0.2807423828806498</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4023626550013678</v>
+        <v>0.3980294404038495</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -1411,19 +1411,19 @@
         <v>61059</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49338</v>
+        <v>48096</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72587</v>
+        <v>72498</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3591705667517147</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2902191668134605</v>
+        <v>0.2829169490574831</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.426980875664164</v>
+        <v>0.4264562970889767</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -1432,19 +1432,19 @@
         <v>147205</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>128597</v>
+        <v>127380</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167017</v>
+        <v>166442</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3478377456662466</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.303868928640693</v>
+        <v>0.3009927762535253</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3946541884896082</v>
+        <v>0.3932952051001709</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>73939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60169</v>
+        <v>59837</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89937</v>
+        <v>90015</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2920196931244768</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2376353282555352</v>
+        <v>0.236325918775068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3552047121741055</v>
+        <v>0.3555131390432644</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -1482,19 +1482,19 @@
         <v>48098</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37938</v>
+        <v>36889</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60593</v>
+        <v>59482</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2829281803187497</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2231654010485693</v>
+        <v>0.2169925199564209</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.356428351217213</v>
+        <v>0.3498897425246651</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>117</v>
@@ -1503,19 +1503,19 @@
         <v>122037</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>103607</v>
+        <v>104377</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138328</v>
+        <v>141230</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2883675889372811</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2448182785414536</v>
+        <v>0.2466381092982221</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3268626663784355</v>
+        <v>0.3337196543521934</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>170385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>151308</v>
+        <v>150734</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>188759</v>
+        <v>190366</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4199314616794306</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3729133287632227</v>
+        <v>0.3715003746500976</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4652163404718953</v>
+        <v>0.4691759424402418</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>102</v>
@@ -1628,19 +1628,19 @@
         <v>105515</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>88513</v>
+        <v>88192</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>123797</v>
+        <v>121984</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3478153562212147</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2917704787851098</v>
+        <v>0.2907127572645302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4080778712741103</v>
+        <v>0.4021010060608018</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>282</v>
@@ -1649,19 +1649,19 @@
         <v>275900</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>250775</v>
+        <v>251111</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>301905</v>
+        <v>303395</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.389079308853734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3536472339482794</v>
+        <v>0.354121014593903</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4257507271995408</v>
+        <v>0.4278522331185831</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>158909</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>139959</v>
+        <v>140147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>177475</v>
+        <v>179467</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3916468442374843</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.344942926198441</v>
+        <v>0.3454075300400181</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4374047875215925</v>
+        <v>0.4423137246159215</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>132</v>
@@ -1699,19 +1699,19 @@
         <v>138242</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>120210</v>
+        <v>121404</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>155427</v>
+        <v>155236</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4556934626387875</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3962552518727045</v>
+        <v>0.4001885633856414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5123431578646227</v>
+        <v>0.5117132373359391</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>295</v>
@@ -1720,19 +1720,19 @@
         <v>297151</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>271704</v>
+        <v>270964</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>322274</v>
+        <v>325240</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4190467717062653</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3831616230161582</v>
+        <v>0.3821181822406757</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.454476790886001</v>
+        <v>0.4586588366380195</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>76451</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62729</v>
+        <v>61762</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>92342</v>
+        <v>92911</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.188421694083085</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1546011082712842</v>
+        <v>0.1522199509657221</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2275864434270096</v>
+        <v>0.2289894343951024</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -1770,19 +1770,19 @@
         <v>59609</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46392</v>
+        <v>46874</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75129</v>
+        <v>73908</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1964911811399978</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1529227231063633</v>
+        <v>0.1545134119985432</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2476524452970371</v>
+        <v>0.2436264027764904</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>137</v>
@@ -1791,19 +1791,19 @@
         <v>136060</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>117822</v>
+        <v>114138</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>159731</v>
+        <v>156875</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1918739194400006</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1661541856333455</v>
+        <v>0.160959427193936</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2252550829339956</v>
+        <v>0.2212279613462559</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>599880</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>562721</v>
+        <v>560642</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>638828</v>
+        <v>634813</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4336306500355889</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4067701856149983</v>
+        <v>0.4052668244451621</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4617850758257695</v>
+        <v>0.4588823127857108</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>345</v>
@@ -1916,19 +1916,19 @@
         <v>348212</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>321427</v>
+        <v>320269</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>378031</v>
+        <v>378837</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4038168159340124</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3727549224268473</v>
+        <v>0.3714111347697274</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.438397603245874</v>
+        <v>0.439332134927057</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>940</v>
@@ -1937,19 +1937,19 @@
         <v>948092</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>907340</v>
+        <v>898248</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>993718</v>
+        <v>996342</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4221827140007622</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4040359782337771</v>
+        <v>0.3999870240692819</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.442499555886773</v>
+        <v>0.4436680100291157</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>511218</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>475288</v>
+        <v>477562</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>547389</v>
+        <v>547299</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3695406271987067</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3435675659399393</v>
+        <v>0.3452114433732053</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3956872241733533</v>
+        <v>0.3956221672669968</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>337</v>
@@ -1987,19 +1987,19 @@
         <v>346931</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>317708</v>
+        <v>316751</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>377229</v>
+        <v>373202</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4023310659015357</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3684413118614261</v>
+        <v>0.3673316944972442</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4374669535623879</v>
+        <v>0.4327970684144466</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>827</v>
@@ -2008,19 +2008,19 @@
         <v>858150</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>814757</v>
+        <v>809114</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>902143</v>
+        <v>902344</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3821315218667643</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3628086799399053</v>
+        <v>0.3602962876335734</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4017214536754578</v>
+        <v>0.4018109407761856</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>272291</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>240549</v>
+        <v>244322</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>302147</v>
+        <v>304972</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1968287227657044</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1738839296541113</v>
+        <v>0.1766113418896383</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2184104984842893</v>
+        <v>0.2204527234744067</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>162</v>
@@ -2058,19 +2058,19 @@
         <v>167159</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>144858</v>
+        <v>144240</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>192437</v>
+        <v>191370</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1938521181644519</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1679895889666733</v>
+        <v>0.1672736044287819</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.223166218685228</v>
+        <v>0.2219291128392885</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>424</v>
@@ -2079,19 +2079,19 @@
         <v>439450</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>403801</v>
+        <v>401622</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>472766</v>
+        <v>480985</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1956857641324735</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1798115688105446</v>
+        <v>0.1788412312507267</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2105211043563439</v>
+        <v>0.2141813443244555</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>41169</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29791</v>
+        <v>30824</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52873</v>
+        <v>54945</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1532619112821017</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1109070770374958</v>
+        <v>0.1147512078792749</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1968365749905849</v>
+        <v>0.2045472917240885</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2444,19 +2444,19 @@
         <v>26476</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17411</v>
+        <v>16717</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37733</v>
+        <v>37724</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.164563047920077</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1082192641000606</v>
+        <v>0.1039037528533244</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2345331663645718</v>
+        <v>0.2344749257528617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -2465,19 +2465,19 @@
         <v>67644</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53464</v>
+        <v>53835</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85901</v>
+        <v>85841</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.157495174696889</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1244791702511712</v>
+        <v>0.1253432356487061</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2000018564521481</v>
+        <v>0.1998628490099233</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>126993</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>112339</v>
+        <v>110788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143920</v>
+        <v>144370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4727689405697398</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4182137991675908</v>
+        <v>0.412439722821248</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5357848764101606</v>
+        <v>0.5374599764797708</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -2515,19 +2515,19 @@
         <v>81945</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68973</v>
+        <v>68892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>94897</v>
+        <v>94371</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5093371819668631</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4287068140709672</v>
+        <v>0.4282067105689729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5898392661430246</v>
+        <v>0.5865718763704579</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>199</v>
@@ -2536,19 +2536,19 @@
         <v>208939</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>183988</v>
+        <v>187465</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>227219</v>
+        <v>232733</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4864669431166136</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4283763118193907</v>
+        <v>0.4364704020565968</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5290281881669859</v>
+        <v>0.5418679333879027</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>100454</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>85829</v>
+        <v>84636</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>117241</v>
+        <v>117172</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3739691481481586</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3195223038919642</v>
+        <v>0.31508241251116</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4364629608394015</v>
+        <v>0.4362060343760355</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -2586,19 +2586,19 @@
         <v>52465</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40554</v>
+        <v>40814</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65008</v>
+        <v>64969</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.32609977011306</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2520685003925128</v>
+        <v>0.2536823289858561</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4040636868442605</v>
+        <v>0.4038224281874448</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>143</v>
@@ -2607,19 +2607,19 @@
         <v>152919</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>134189</v>
+        <v>131607</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>173510</v>
+        <v>173527</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3560378821864973</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3124295216833131</v>
+        <v>0.3064184949749927</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4039803816048926</v>
+        <v>0.404019408349437</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>67303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51934</v>
+        <v>51360</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84855</v>
+        <v>84698</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1664002453177239</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1284018688290474</v>
+        <v>0.1269808431810241</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2097946430814027</v>
+        <v>0.2094059074845354</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -2732,19 +2732,19 @@
         <v>20635</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13274</v>
+        <v>12692</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31739</v>
+        <v>31511</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07107087531377682</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04571768234747037</v>
+        <v>0.04371398986739045</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1093129139241705</v>
+        <v>0.1085294939490064</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>80</v>
@@ -2753,19 +2753,19 @@
         <v>87939</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>69007</v>
+        <v>70303</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>103824</v>
+        <v>107778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1265642255208827</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09931695126449692</v>
+        <v>0.1011824411153868</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1494270863883786</v>
+        <v>0.1551175617201699</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>179383</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>157727</v>
+        <v>158178</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>201092</v>
+        <v>200312</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4435043219108204</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3899628305846289</v>
+        <v>0.3910777495093232</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4971774878134192</v>
+        <v>0.495250101811557</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>143</v>
@@ -2803,19 +2803,19 @@
         <v>156250</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>138619</v>
+        <v>137167</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>173669</v>
+        <v>172053</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5381482273322994</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4774244143627626</v>
+        <v>0.4724244127239833</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5981422060311246</v>
+        <v>0.5925777530813479</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>308</v>
@@ -2824,19 +2824,19 @@
         <v>335633</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>308682</v>
+        <v>303888</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>364923</v>
+        <v>362377</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4830539013307232</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4442653256596208</v>
+        <v>0.4373653025052631</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.525209583310717</v>
+        <v>0.5215455531732518</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>157781</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136891</v>
+        <v>137468</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>178730</v>
+        <v>178215</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3900954327714557</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.338448685077344</v>
+        <v>0.3398750100787549</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4418904200643817</v>
+        <v>0.4406177427223338</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -2874,19 +2874,19 @@
         <v>113462</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95314</v>
+        <v>97399</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130982</v>
+        <v>132271</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3907808973539238</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3282768517454976</v>
+        <v>0.3354557047133881</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4511213848740362</v>
+        <v>0.4555631549017106</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>247</v>
@@ -2895,19 +2895,19 @@
         <v>271243</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>244524</v>
+        <v>246954</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>297680</v>
+        <v>301390</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3903818731483941</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3519279353264341</v>
+        <v>0.355424519959083</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4284316548013613</v>
+        <v>0.4337703442179027</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>55071</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42700</v>
+        <v>41945</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>70225</v>
+        <v>69502</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1772624043411994</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1374436232211572</v>
+        <v>0.135011483954602</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2260407305295746</v>
+        <v>0.2237150932355295</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -3020,19 +3020,19 @@
         <v>44261</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32977</v>
+        <v>32797</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57905</v>
+        <v>57132</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1925280768275842</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1434427317059334</v>
+        <v>0.1426581739744903</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2518765733288308</v>
+        <v>0.2485137202667576</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>93</v>
@@ -3041,19 +3041,19 @@
         <v>99332</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>81554</v>
+        <v>81185</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>118616</v>
+        <v>120350</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1837546523736737</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1508664852163064</v>
+        <v>0.1501833138173513</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2194268554971189</v>
+        <v>0.2226357624287477</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>143243</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125298</v>
+        <v>123667</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161179</v>
+        <v>161661</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4610727207839109</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4033088325075962</v>
+        <v>0.3980601472819872</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5188029040650929</v>
+        <v>0.5203572528405064</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -3091,19 +3091,19 @@
         <v>101934</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87173</v>
+        <v>86996</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118017</v>
+        <v>118290</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4433907023130095</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3791865492872238</v>
+        <v>0.3784147684685656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5133498501626718</v>
+        <v>0.5145383275965904</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>222</v>
@@ -3112,19 +3112,19 @@
         <v>245177</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>221686</v>
+        <v>221376</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272868</v>
+        <v>271319</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.453552839184835</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4100969842700192</v>
+        <v>0.4095234353963849</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5047775773709782</v>
+        <v>0.501912129804813</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>112360</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95244</v>
+        <v>94917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130266</v>
+        <v>132273</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3616648748748898</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3065716384092737</v>
+        <v>0.3055201156922085</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4193001950239484</v>
+        <v>0.4257611925281714</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -3162,19 +3162,19 @@
         <v>83701</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>69838</v>
+        <v>68238</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>100438</v>
+        <v>99229</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3640812208594063</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3037801514079508</v>
+        <v>0.2968203595825835</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4368841849627869</v>
+        <v>0.4316277124152706</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>173</v>
@@ -3183,19 +3183,19 @@
         <v>196061</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>170065</v>
+        <v>171937</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>222408</v>
+        <v>220264</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3626925084414913</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.314603900257658</v>
+        <v>0.3180654709906123</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.411432892779641</v>
+        <v>0.4074656767548624</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>72234</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58294</v>
+        <v>58989</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90260</v>
+        <v>89034</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1998135966620451</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1612515433025066</v>
+        <v>0.163173748275144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2496763519887319</v>
+        <v>0.2462836883246539</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -3308,19 +3308,19 @@
         <v>46907</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34635</v>
+        <v>34654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60458</v>
+        <v>60784</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1599715561717108</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1181191242685075</v>
+        <v>0.1181841727353755</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.206187070729914</v>
+        <v>0.2072997641040474</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -3329,19 +3329,19 @@
         <v>119141</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100375</v>
+        <v>100260</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>140419</v>
+        <v>139505</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1819704485497695</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1533076257656097</v>
+        <v>0.1531325975385487</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2144696869309695</v>
+        <v>0.213073534728559</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>174921</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>155728</v>
+        <v>154932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192698</v>
+        <v>194227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4838622859971887</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4307716137769383</v>
+        <v>0.4285714288265516</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5330376339735928</v>
+        <v>0.537267649006852</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -3379,19 +3379,19 @@
         <v>135645</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>118676</v>
+        <v>117654</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>152950</v>
+        <v>151957</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4626070004768942</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4047371386484198</v>
+        <v>0.4012510057804445</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5216246595149576</v>
+        <v>0.5182381671064261</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>303</v>
@@ -3400,19 +3400,19 @@
         <v>310565</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>285612</v>
+        <v>284951</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>337352</v>
+        <v>338886</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4743431649120291</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4362301382518562</v>
+        <v>0.4352203434111175</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5152556045644431</v>
+        <v>0.5175991900028688</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>114354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>96982</v>
+        <v>97675</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>133847</v>
+        <v>134579</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3163241173407662</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2682705461968231</v>
+        <v>0.2701869669895355</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3702441985007479</v>
+        <v>0.3722689232928604</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>103</v>
@@ -3450,19 +3450,19 @@
         <v>110667</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>95016</v>
+        <v>93769</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128376</v>
+        <v>126734</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.377421443351395</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3240464680653084</v>
+        <v>0.3197930717752797</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4378177686022729</v>
+        <v>0.4322161429309035</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>209</v>
@@ -3471,19 +3471,19 @@
         <v>225021</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>200501</v>
+        <v>198500</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>249446</v>
+        <v>252054</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3436863865382014</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3062366165521062</v>
+        <v>0.3031796987643813</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3809926998838335</v>
+        <v>0.3849754103604907</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>235777</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>209006</v>
+        <v>207030</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266579</v>
+        <v>265943</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1752644103548555</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1553640173244696</v>
+        <v>0.1538950275768178</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1981608244596898</v>
+        <v>0.1976879200516377</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>128</v>
@@ -3596,19 +3596,19 @@
         <v>138279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>117172</v>
+        <v>116873</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>161993</v>
+        <v>162456</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.141919711912617</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1202568739081855</v>
+        <v>0.1199499819939584</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1662581312029327</v>
+        <v>0.1667334599107327</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>353</v>
@@ -3617,19 +3617,19 @@
         <v>374056</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>338399</v>
+        <v>337193</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>412575</v>
+        <v>412364</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1612580646001131</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1458859846624034</v>
+        <v>0.1453661299553917</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1778637441159245</v>
+        <v>0.1777727719756548</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>624540</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>589678</v>
+        <v>587150</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>663957</v>
+        <v>663730</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.464250229506671</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4383353190793478</v>
+        <v>0.4364565723553414</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4935503632000913</v>
+        <v>0.4933820399796557</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>441</v>
@@ -3667,19 +3667,19 @@
         <v>475773</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>443189</v>
+        <v>443753</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>509855</v>
+        <v>505188</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4882997793712865</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4548579149151252</v>
+        <v>0.4554359785012653</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5232782287392405</v>
+        <v>0.5184883412680703</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1032</v>
@@ -3688,19 +3688,19 @@
         <v>1100313</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1054164</v>
+        <v>1051543</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1155829</v>
+        <v>1148689</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4743521745350007</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4544567491755678</v>
+        <v>0.4533271138881552</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4982854675637208</v>
+        <v>0.4952069684298864</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>484949</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>448894</v>
+        <v>448119</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>521187</v>
+        <v>521883</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3604853601384734</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3336842003960143</v>
+        <v>0.333108336953014</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3874226524558166</v>
+        <v>0.3879401465009121</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>327</v>
@@ -3738,19 +3738,19 @@
         <v>360295</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>329950</v>
+        <v>330933</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>392800</v>
+        <v>391663</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3697805087160964</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3386371341415892</v>
+        <v>0.3396460255549702</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4031416872870029</v>
+        <v>0.4019749030341623</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>772</v>
@@ -3759,19 +3759,19 @@
         <v>845243</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>790142</v>
+        <v>796509</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>891406</v>
+        <v>891669</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3643897608648862</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.340635428268086</v>
+        <v>0.3433799684295553</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.384290924277949</v>
+        <v>0.3844042961571777</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>33121</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22897</v>
+        <v>23352</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45234</v>
+        <v>45868</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1332246420364672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09210264353314231</v>
+        <v>0.09393265361134596</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1819498782626212</v>
+        <v>0.1844998917056164</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -4124,19 +4124,19 @@
         <v>18262</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11217</v>
+        <v>11363</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26981</v>
+        <v>28054</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1119245429365046</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06874795995637925</v>
+        <v>0.06964066125376681</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1653668649429137</v>
+        <v>0.1719378098116006</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -4145,19 +4145,19 @@
         <v>51382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39706</v>
+        <v>39582</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67819</v>
+        <v>65826</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1247846166756011</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09642725062740207</v>
+        <v>0.09612705437218461</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.164702641217759</v>
+        <v>0.1598611258221212</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>136414</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120606</v>
+        <v>120313</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>151778</v>
+        <v>152233</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5487113991108388</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4851246513753636</v>
+        <v>0.4839477163410356</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.610512875776723</v>
+        <v>0.6123416280424391</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>89</v>
@@ -4195,19 +4195,19 @@
         <v>89307</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76571</v>
+        <v>76186</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>102455</v>
+        <v>100880</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5473566706520182</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4692992755920296</v>
+        <v>0.4669364755410534</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6279365510606912</v>
+        <v>0.6182869569676229</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>219</v>
@@ -4216,19 +4216,19 @@
         <v>225721</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>205612</v>
+        <v>204529</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>245147</v>
+        <v>246593</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5481745967938226</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4993404942397639</v>
+        <v>0.4967096804274936</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5953520528609103</v>
+        <v>0.5988640899803629</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>79073</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65096</v>
+        <v>63101</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94155</v>
+        <v>93995</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.318063958852694</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2618413790300667</v>
+        <v>0.2538162705447115</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3787277111984611</v>
+        <v>0.3780866000533683</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>55</v>
@@ -4266,19 +4266,19 @@
         <v>55592</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>43676</v>
+        <v>44073</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>68861</v>
+        <v>67757</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3407187864114773</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2676883021422918</v>
+        <v>0.2701211946162111</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4220422626466413</v>
+        <v>0.4152782138611409</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>130</v>
@@ -4287,19 +4287,19 @@
         <v>134665</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>116410</v>
+        <v>115021</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>154438</v>
+        <v>154058</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3270407865305762</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2827084470573396</v>
+        <v>0.2793335555994499</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3750603116133391</v>
+        <v>0.3741368647237225</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>41291</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29947</v>
+        <v>29476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>54863</v>
+        <v>53632</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1260486142700989</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09141797263413939</v>
+        <v>0.08998036717186592</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1674810931889083</v>
+        <v>0.1637227096915575</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -4412,19 +4412,19 @@
         <v>27497</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17608</v>
+        <v>18708</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37638</v>
+        <v>37861</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1058979869617161</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06781076218525679</v>
+        <v>0.07204958485480016</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1449500277742701</v>
+        <v>0.145809250434372</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>64</v>
@@ -4433,19 +4433,19 @@
         <v>68788</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>54742</v>
+        <v>54519</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>86222</v>
+        <v>86535</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1171385869925841</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09321948330561555</v>
+        <v>0.09283951210135247</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.146826328245528</v>
+        <v>0.1473586080285067</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>169327</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>149142</v>
+        <v>150026</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>187009</v>
+        <v>188312</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5169067769266746</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4552879021004785</v>
+        <v>0.4579842983630624</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5708830948473037</v>
+        <v>0.5748610212317387</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>124</v>
@@ -4483,19 +4483,19 @@
         <v>127720</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>111991</v>
+        <v>111031</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>143253</v>
+        <v>143593</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4918728040047569</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4312990420757357</v>
+        <v>0.427600927725705</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.551693739703126</v>
+        <v>0.553005538927077</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>278</v>
@@ -4504,19 +4504,19 @@
         <v>297047</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>272745</v>
+        <v>271180</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>322458</v>
+        <v>321327</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5058374748059381</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4644534935545688</v>
+        <v>0.4617888989152822</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.549108722532029</v>
+        <v>0.5471837444532225</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>116960</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100463</v>
+        <v>98813</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134991</v>
+        <v>135206</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3570446088032265</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3066856083507583</v>
+        <v>0.301646828486797</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4120868601438155</v>
+        <v>0.4127443736783823</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -4554,19 +4554,19 @@
         <v>104443</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88798</v>
+        <v>88275</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122366</v>
+        <v>120824</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.402229209033527</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3419762642520415</v>
+        <v>0.3399635222681822</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4712547107704216</v>
+        <v>0.4653160574906682</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>204</v>
@@ -4575,19 +4575,19 @@
         <v>221403</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>196091</v>
+        <v>198197</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>245943</v>
+        <v>245441</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3770239382014778</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3339212635348807</v>
+        <v>0.337506983130973</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.418813310209106</v>
+        <v>0.4179586570486456</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>51413</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38702</v>
+        <v>38445</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>66048</v>
+        <v>64950</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1674448473909919</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1260468394146825</v>
+        <v>0.1252103476978151</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2151108651773848</v>
+        <v>0.211534333141217</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -4700,19 +4700,19 @@
         <v>34970</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25866</v>
+        <v>24765</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46979</v>
+        <v>47462</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.157348823752121</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1163859880746771</v>
+        <v>0.111431263993049</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2113865195274022</v>
+        <v>0.2135588816242236</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>79</v>
@@ -4721,19 +4721,19 @@
         <v>86382</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>69473</v>
+        <v>70364</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>105422</v>
+        <v>104871</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1632055951557922</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.131257396511272</v>
+        <v>0.1329422529444931</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1991769062072286</v>
+        <v>0.1981368833025302</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>155628</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>135274</v>
+        <v>137732</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>172264</v>
+        <v>174490</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5068624541092538</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4405727387852535</v>
+        <v>0.4485782853359457</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.561044024116546</v>
+        <v>0.568291997992269</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -4771,19 +4771,19 @@
         <v>109970</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>94794</v>
+        <v>95567</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>126891</v>
+        <v>124464</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4948206884222626</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4265349043811849</v>
+        <v>0.4300100081615323</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5709572272687511</v>
+        <v>0.5600373807643524</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>244</v>
@@ -4792,19 +4792,19 @@
         <v>265599</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>243737</v>
+        <v>243155</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>292552</v>
+        <v>289133</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5018061979107453</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4605008099292699</v>
+        <v>0.4594020329142534</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5527285907163891</v>
+        <v>0.5462702687490603</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>100001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83615</v>
+        <v>82987</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117872</v>
+        <v>116969</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3256926984997543</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2723238269562938</v>
+        <v>0.2702774784501668</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3838949401005021</v>
+        <v>0.3809541074381901</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>76</v>
@@ -4842,19 +4842,19 @@
         <v>77303</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63516</v>
+        <v>62489</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92420</v>
+        <v>92620</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3478304878256164</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2857949540448574</v>
+        <v>0.2811748494067775</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4158518375925556</v>
+        <v>0.4167506516874437</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>166</v>
@@ -4863,19 +4863,19 @@
         <v>177305</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>155216</v>
+        <v>155914</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>200251</v>
+        <v>198853</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3349882069334625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2932561218492115</v>
+        <v>0.2945732891868554</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.378341886530869</v>
+        <v>0.3757010657044018</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>50907</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38371</v>
+        <v>38666</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65608</v>
+        <v>64271</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1818244825857247</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1370491583242751</v>
+        <v>0.1381022774245187</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2343336143071653</v>
+        <v>0.2295571851847981</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -4988,19 +4988,19 @@
         <v>42555</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31439</v>
+        <v>31664</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54358</v>
+        <v>54891</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1666022576573289</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1230811879546283</v>
+        <v>0.1239637850332398</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2128107259176989</v>
+        <v>0.2148941423319077</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -5009,19 +5009,19 @@
         <v>93462</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76725</v>
+        <v>76688</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>111298</v>
+        <v>110453</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1745623270546167</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1433011762350123</v>
+        <v>0.1432329840770185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2078744118755703</v>
+        <v>0.206295479892724</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>108537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>94271</v>
+        <v>92572</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>125695</v>
+        <v>125237</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3876595254978882</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.336705949259533</v>
+        <v>0.3306404921939178</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.448943803981784</v>
+        <v>0.4473095335834478</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>96</v>
@@ -5059,19 +5059,19 @@
         <v>98174</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83302</v>
+        <v>83600</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113222</v>
+        <v>113605</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3843462898393052</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3261229524403598</v>
+        <v>0.3272907997750912</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4432577549989044</v>
+        <v>0.4447574688515607</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>208</v>
@@ -5080,19 +5080,19 @@
         <v>206710</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>184189</v>
+        <v>184120</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>229497</v>
+        <v>228365</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3860788608593728</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3440142406327154</v>
+        <v>0.3438866605105441</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4286371000015772</v>
+        <v>0.4265227812796915</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>120535</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>104161</v>
+        <v>102291</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>136919</v>
+        <v>136863</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4305159919163871</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3720321591608151</v>
+        <v>0.3653532715439632</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4890313584011697</v>
+        <v>0.4888332101827932</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>106</v>
@@ -5130,19 +5130,19 @@
         <v>114702</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>97752</v>
+        <v>100062</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>131520</v>
+        <v>131666</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4490514525033659</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3826953678335521</v>
+        <v>0.391736023436271</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5148930247215804</v>
+        <v>0.5154650311703696</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>223</v>
@@ -5151,19 +5151,19 @@
         <v>235237</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>211300</v>
+        <v>214645</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>257108</v>
+        <v>258117</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4393588120860105</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3946499015570443</v>
+        <v>0.4008986492856627</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4802073529541149</v>
+        <v>0.4820925753713373</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>176731</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>152980</v>
+        <v>151118</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>203486</v>
+        <v>202284</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1519343472266239</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1315156396427168</v>
+        <v>0.1299148401054538</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1749354134471782</v>
+        <v>0.1739017627151984</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>123</v>
@@ -5276,19 +5276,19 @@
         <v>123284</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>102790</v>
+        <v>105396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>144968</v>
+        <v>144889</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1369072363717772</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1141488213735626</v>
+        <v>0.11704217979521</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1609868426636065</v>
+        <v>0.1608995534570556</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>281</v>
@@ -5297,19 +5297,19 @@
         <v>300016</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>268503</v>
+        <v>267939</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>335881</v>
+        <v>333096</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1453772779784554</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1301072980887817</v>
+        <v>0.1298338536940984</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1627565454991253</v>
+        <v>0.1614068919776242</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>569906</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>536453</v>
+        <v>532306</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>604517</v>
+        <v>603393</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4899436880882839</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4611841731959792</v>
+        <v>0.4576196457150367</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5196982006597394</v>
+        <v>0.5187318603459954</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>414</v>
@@ -5347,19 +5347,19 @@
         <v>425171</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>397700</v>
+        <v>394990</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>457102</v>
+        <v>453545</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4721528630872276</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4416464922533834</v>
+        <v>0.4386368962708019</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5076124031934357</v>
+        <v>0.5036615423456181</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>949</v>
@@ -5368,19 +5368,19 @@
         <v>995078</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>950091</v>
+        <v>947130</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1041375</v>
+        <v>1042130</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4821806741170155</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4603815872258197</v>
+        <v>0.4589469119601337</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5046147306977161</v>
+        <v>0.5049807777257515</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>416570</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>384139</v>
+        <v>383927</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>451838</v>
+        <v>448609</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3581219646850922</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3302412866564668</v>
+        <v>0.3300593345369534</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3884417437453662</v>
+        <v>0.3856654555409252</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>335</v>
@@ -5418,19 +5418,19 @@
         <v>352039</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>321722</v>
+        <v>324321</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>381284</v>
+        <v>380309</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3909399005409953</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3572726392827607</v>
+        <v>0.3601582612404701</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4234159586793076</v>
+        <v>0.4223338063547985</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>723</v>
@@ -5439,19 +5439,19 @@
         <v>768610</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>724028</v>
+        <v>725121</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>815649</v>
+        <v>813407</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3724420479045291</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3508392475666237</v>
+        <v>0.3513687877546574</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3952358014306938</v>
+        <v>0.3941490634660501</v>
       </c>
     </row>
     <row r="23">
